--- a/src/main/resources/DriverSheet.xlsx
+++ b/src/main/resources/DriverSheet.xlsx
@@ -436,7 +436,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,7 +447,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/DriverSheet.xlsx
+++ b/src/main/resources/DriverSheet.xlsx
@@ -395,9 +395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -436,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -447,7 +445,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -458,7 +456,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/DriverSheet.xlsx
+++ b/src/main/resources/DriverSheet.xlsx
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -434,7 +434,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
